--- a/data/trans_orig/P6716-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>2675</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7471</v>
+        <v>7848</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03229084941887243</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008731043300042398</v>
+        <v>0.008809575038073642</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09016830921368806</v>
+        <v>0.09472287159442534</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6823</v>
+        <v>6617</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02419080755979263</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07770961575818945</v>
+        <v>0.07535814579224563</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -784,19 +784,19 @@
         <v>4799</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1702</v>
+        <v>1874</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10622</v>
+        <v>10691</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02812335442803314</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009976380713939881</v>
+        <v>0.01098374026164737</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06224616443143529</v>
+        <v>0.0626485702179327</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>3248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>953</v>
+        <v>973</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8533</v>
+        <v>8160</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03920299780257756</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01150546793762682</v>
+        <v>0.01174642281536798</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1029896082682202</v>
+        <v>0.09849109953419286</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>3248</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8995</v>
+        <v>9082</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01903294191762118</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005622963029785578</v>
+        <v>0.005620352153894562</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05270748121633142</v>
+        <v>0.0532219612992325</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>18846</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12145</v>
+        <v>11907</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28125</v>
+        <v>28105</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2274670751552161</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1465868513639786</v>
+        <v>0.1437142220354871</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3394687392243795</v>
+        <v>0.33922705185251</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -897,19 +897,19 @@
         <v>19210</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12628</v>
+        <v>12281</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27399</v>
+        <v>27781</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2187919238752854</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1438219190888569</v>
+        <v>0.1398753104618203</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3120614515771608</v>
+        <v>0.3164074139952929</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>37</v>
@@ -918,19 +918,19 @@
         <v>38056</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>28264</v>
+        <v>26834</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>50001</v>
+        <v>49931</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.223003684702072</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1656255108426649</v>
+        <v>0.157244303521446</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2929969180986448</v>
+        <v>0.292587761279258</v>
       </c>
     </row>
     <row r="7">
@@ -947,19 +947,19 @@
         <v>26253</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18288</v>
+        <v>18129</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35351</v>
+        <v>34844</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3168656764152998</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2207343910706054</v>
+        <v>0.2188200858352606</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4266765347066775</v>
+        <v>0.4205601862065276</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -968,19 +968,19 @@
         <v>23780</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16605</v>
+        <v>16784</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32520</v>
+        <v>32501</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2708433294570063</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1891186559928156</v>
+        <v>0.1911547409133001</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3703846644802861</v>
+        <v>0.3701683901911711</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -989,19 +989,19 @@
         <v>50033</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38775</v>
+        <v>38211</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63472</v>
+        <v>63579</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2931870456437368</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.227216316361309</v>
+        <v>0.2239106765448767</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3719409823037124</v>
+        <v>0.37256406783392</v>
       </c>
     </row>
     <row r="8">
@@ -1018,19 +1018,19 @@
         <v>31829</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>23008</v>
+        <v>22584</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>41662</v>
+        <v>41586</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3841734012080342</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2777044195742889</v>
+        <v>0.2725856501597902</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5028605446602684</v>
+        <v>0.5019399728834012</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>41</v>
@@ -1039,19 +1039,19 @@
         <v>42687</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34310</v>
+        <v>33920</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>52808</v>
+        <v>52375</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4861739391079156</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3907743724955465</v>
+        <v>0.3863325771499341</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6014559924515313</v>
+        <v>0.5965244238032117</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>70</v>
@@ -1060,19 +1060,19 @@
         <v>74516</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>61165</v>
+        <v>62454</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>88570</v>
+        <v>88402</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4366529733085369</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3584206115379349</v>
+        <v>0.3659752690290642</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5190074196496057</v>
+        <v>0.5180278842007354</v>
       </c>
     </row>
     <row r="9">
@@ -1164,19 +1164,19 @@
         <v>13281</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7138</v>
+        <v>7301</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21505</v>
+        <v>21441</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03461669224462104</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01860372291716487</v>
+        <v>0.01903024047966275</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05605052290431014</v>
+        <v>0.0558825650114735</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1185,19 +1185,19 @@
         <v>10256</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5047</v>
+        <v>5270</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18021</v>
+        <v>18215</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03716639890633103</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01828940912390947</v>
+        <v>0.01909695165489716</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06530636804228054</v>
+        <v>0.06601039554621155</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -1206,19 +1206,19 @@
         <v>23537</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15447</v>
+        <v>14568</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34671</v>
+        <v>33840</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03568333742180052</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02341799622195623</v>
+        <v>0.02208534739428501</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05256315977450021</v>
+        <v>0.05130190365833454</v>
       </c>
     </row>
     <row r="11">
@@ -1235,19 +1235,19 @@
         <v>20059</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12253</v>
+        <v>12438</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31044</v>
+        <v>30863</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05228055399329645</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03193673348726724</v>
+        <v>0.03241931099122302</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08091206434114022</v>
+        <v>0.08043982474541733</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -1256,19 +1256,19 @@
         <v>16551</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9891</v>
+        <v>9227</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25795</v>
+        <v>26573</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05998083332330011</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03584439723542152</v>
+        <v>0.03343805357947519</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0934795764085108</v>
+        <v>0.09629843378760654</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>34</v>
@@ -1277,19 +1277,19 @@
         <v>36610</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26670</v>
+        <v>26354</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>50190</v>
+        <v>50420</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05550189154307357</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04043313685195978</v>
+        <v>0.0399537077096065</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07609043886155986</v>
+        <v>0.07643822237875675</v>
       </c>
     </row>
     <row r="12">
@@ -1306,19 +1306,19 @@
         <v>69435</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54946</v>
+        <v>54361</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>84970</v>
+        <v>84650</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.180975776774616</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1432102150573881</v>
+        <v>0.1416856984688709</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2214644753451327</v>
+        <v>0.2206307660321134</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>46</v>
@@ -1327,19 +1327,19 @@
         <v>50553</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>37411</v>
+        <v>37588</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>65931</v>
+        <v>65342</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1832010540282025</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1355733902473638</v>
+        <v>0.1362156261631899</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2389277789732121</v>
+        <v>0.2367937213935876</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>115</v>
@@ -1348,19 +1348,19 @@
         <v>119988</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>100707</v>
+        <v>100214</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>143093</v>
+        <v>141685</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1819067000396607</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1526760086497723</v>
+        <v>0.151928191412316</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2169341689362706</v>
+        <v>0.2147997723692595</v>
       </c>
     </row>
     <row r="13">
@@ -1377,19 +1377,19 @@
         <v>100655</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>83697</v>
+        <v>83941</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>119212</v>
+        <v>118537</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.262346585524401</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2181472943252146</v>
+        <v>0.2187827922531718</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3107143661104823</v>
+        <v>0.3089535057513909</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -1398,19 +1398,19 @@
         <v>73615</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59627</v>
+        <v>59089</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88488</v>
+        <v>88685</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2667748476422299</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2160821286458856</v>
+        <v>0.2141324466327006</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3206730009387109</v>
+        <v>0.3213859160089403</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>170</v>
@@ -1419,19 +1419,19 @@
         <v>174270</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>151489</v>
+        <v>152101</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>199859</v>
+        <v>197256</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2641991062485305</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2296629509029669</v>
+        <v>0.230590748942074</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3029941052424355</v>
+        <v>0.2990473903983217</v>
       </c>
     </row>
     <row r="14">
@@ -1448,19 +1448,19 @@
         <v>180242</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>161364</v>
+        <v>160275</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>201705</v>
+        <v>202072</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4697803914630655</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4205782556830801</v>
+        <v>0.4177391461314446</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5257231362625256</v>
+        <v>0.526679800172372</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>114</v>
@@ -1469,19 +1469,19 @@
         <v>124969</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>107982</v>
+        <v>109320</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>143424</v>
+        <v>142111</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4528768660999365</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3913175474525409</v>
+        <v>0.3961685369703296</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5197573904950128</v>
+        <v>0.5149981297477557</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>284</v>
@@ -1490,19 +1490,19 @@
         <v>305210</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>276994</v>
+        <v>279100</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>329901</v>
+        <v>333409</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4627089647469347</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4199333828210111</v>
+        <v>0.4231257167955196</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5001421258052046</v>
+        <v>0.5054603737179458</v>
       </c>
     </row>
     <row r="15">
@@ -1594,19 +1594,19 @@
         <v>12414</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6920</v>
+        <v>6557</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21437</v>
+        <v>21920</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02919504656060171</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01627510855435195</v>
+        <v>0.01542023885451647</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05041535341394209</v>
+        <v>0.05155150591613079</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1615,19 +1615,19 @@
         <v>7748</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3720</v>
+        <v>3797</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15278</v>
+        <v>15484</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02710930992501038</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01301384373800139</v>
+        <v>0.01328581286491167</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05345229485470471</v>
+        <v>0.05417260243304464</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1636,19 +1636,19 @@
         <v>20162</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13381</v>
+        <v>12552</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31578</v>
+        <v>29832</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02835661227329422</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01881928510865667</v>
+        <v>0.01765297837234582</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04441266662562849</v>
+        <v>0.04195660279174507</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>21053</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12283</v>
+        <v>12703</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32211</v>
+        <v>31764</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04951368648472849</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02888872416245488</v>
+        <v>0.02987544097369233</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07575403514856337</v>
+        <v>0.07470424943204372</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1686,19 +1686,19 @@
         <v>13464</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7096</v>
+        <v>7370</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22010</v>
+        <v>22169</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04710588183631179</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02482631697271616</v>
+        <v>0.02578450046423976</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07700804266973781</v>
+        <v>0.07756398741718643</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -1707,19 +1707,19 @@
         <v>34517</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>23654</v>
+        <v>24257</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48956</v>
+        <v>50487</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0485457857728543</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03326819098876661</v>
+        <v>0.0341163801977519</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06885295749111986</v>
+        <v>0.07100632628212768</v>
       </c>
     </row>
     <row r="18">
@@ -1736,19 +1736,19 @@
         <v>81093</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>66395</v>
+        <v>65637</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>100303</v>
+        <v>99765</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1907178371018107</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1561508063017386</v>
+        <v>0.1543677464365162</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2358965039685074</v>
+        <v>0.2346317212790293</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>71</v>
@@ -1757,19 +1757,19 @@
         <v>74270</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>60266</v>
+        <v>60087</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>88813</v>
+        <v>89574</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2598500576143636</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2108548035886087</v>
+        <v>0.2102290517956659</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3107321380098972</v>
+        <v>0.3133946221283828</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>150</v>
@@ -1778,19 +1778,19 @@
         <v>155363</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>133597</v>
+        <v>132551</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>178493</v>
+        <v>176739</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2185079343970973</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.187895428725955</v>
+        <v>0.1864247015804702</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2510387189385569</v>
+        <v>0.2485718900370013</v>
       </c>
     </row>
     <row r="19">
@@ -1807,19 +1807,19 @@
         <v>96163</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>80204</v>
+        <v>79607</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>113914</v>
+        <v>114851</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.226160655439373</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1886263074707796</v>
+        <v>0.1872240260556677</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2679063389897402</v>
+        <v>0.2701107041072888</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -1828,19 +1828,19 @@
         <v>56823</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43640</v>
+        <v>43101</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71666</v>
+        <v>70271</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1988075326451391</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1526852561524743</v>
+        <v>0.1507981068015304</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2507383501249176</v>
+        <v>0.2458577589148395</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>150</v>
@@ -1849,19 +1849,19 @@
         <v>152986</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>132688</v>
+        <v>129116</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>173952</v>
+        <v>174612</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2151651176402703</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1866176921223306</v>
+        <v>0.1815938609264919</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2446519165191481</v>
+        <v>0.2455804368368819</v>
       </c>
     </row>
     <row r="20">
@@ -1878,19 +1878,19 @@
         <v>214476</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>194412</v>
+        <v>192675</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>233441</v>
+        <v>235240</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5044127744134861</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4572256172214348</v>
+        <v>0.4531415210055293</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5490147493181853</v>
+        <v>0.5532470083475816</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>126</v>
@@ -1899,19 +1899,19 @@
         <v>133513</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>116818</v>
+        <v>117778</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>150216</v>
+        <v>151304</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4671272179791751</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4087130436253331</v>
+        <v>0.4120747386526894</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5255661340653147</v>
+        <v>0.5293718259888832</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>332</v>
@@ -1920,19 +1920,19 @@
         <v>347989</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>317814</v>
+        <v>321490</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>373707</v>
+        <v>372377</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4894245499164839</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4469847039829766</v>
+        <v>0.4521553371036512</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5255946757864786</v>
+        <v>0.5237245898725831</v>
       </c>
     </row>
     <row r="21">
@@ -2024,19 +2024,19 @@
         <v>8253</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3017</v>
+        <v>3235</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16226</v>
+        <v>17533</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02244626302667658</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008206563957335032</v>
+        <v>0.008799536869991438</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04413195475976767</v>
+        <v>0.04768727907062097</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2045,19 +2045,19 @@
         <v>6301</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2953</v>
+        <v>2152</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13611</v>
+        <v>12822</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02796271504984206</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01310510173044119</v>
+        <v>0.009549829852880854</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06040012105888369</v>
+        <v>0.05690161874068789</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -2066,19 +2066,19 @@
         <v>14554</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8220</v>
+        <v>8248</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24545</v>
+        <v>24348</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02454250593732082</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01386242181467121</v>
+        <v>0.01390905855697363</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04139163196442246</v>
+        <v>0.04105893651230391</v>
       </c>
     </row>
     <row r="23">
@@ -2095,19 +2095,19 @@
         <v>7484</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3081</v>
+        <v>3166</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14523</v>
+        <v>15441</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02035534235375535</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.008381028330625102</v>
+        <v>0.008610921009500691</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03950009757813915</v>
+        <v>0.04199877530632499</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -2116,19 +2116,19 @@
         <v>7548</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2973</v>
+        <v>2449</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15986</v>
+        <v>15277</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03349449819497001</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01319475966869406</v>
+        <v>0.01086584865219212</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07094228269939239</v>
+        <v>0.06779399609420789</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>13</v>
@@ -2137,19 +2137,19 @@
         <v>15032</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8473</v>
+        <v>8570</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24878</v>
+        <v>25445</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02534820047494162</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01428861301945315</v>
+        <v>0.01445215994246101</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04195311899761413</v>
+        <v>0.04290839181471904</v>
       </c>
     </row>
     <row r="24">
@@ -2166,19 +2166,19 @@
         <v>56808</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>44328</v>
+        <v>42096</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>74000</v>
+        <v>74165</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1545116661600633</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1205680330442695</v>
+        <v>0.1144960382598604</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2012718190294112</v>
+        <v>0.2017204774033349</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>41</v>
@@ -2187,19 +2187,19 @@
         <v>48623</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>35960</v>
+        <v>36691</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>64199</v>
+        <v>63773</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2157766097962008</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1595814809813518</v>
+        <v>0.1628250774676123</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2848978084668745</v>
+        <v>0.2830069026906626</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>91</v>
@@ -2208,19 +2208,19 @@
         <v>105431</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>86599</v>
+        <v>86276</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>128980</v>
+        <v>126623</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1777922463643263</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1460341532236774</v>
+        <v>0.14548961505916</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2175038975249968</v>
+        <v>0.2135276622382429</v>
       </c>
     </row>
     <row r="25">
@@ -2237,19 +2237,19 @@
         <v>98225</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>80683</v>
+        <v>79694</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>117085</v>
+        <v>116330</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2671597577765916</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.219448079570339</v>
+        <v>0.2167572761465592</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3184561609247899</v>
+        <v>0.3164047806425997</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -2258,19 +2258,19 @@
         <v>49918</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36999</v>
+        <v>37210</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>65366</v>
+        <v>64462</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2215212447771808</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1641937086571651</v>
+        <v>0.1651294086524944</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2900785624098684</v>
+        <v>0.286066053960667</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>131</v>
@@ -2279,19 +2279,19 @@
         <v>148142</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>126643</v>
+        <v>126581</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>171168</v>
+        <v>170707</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2498171961218158</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2135620759604275</v>
+        <v>0.213458178939179</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2886454318110213</v>
+        <v>0.2878687738228856</v>
       </c>
     </row>
     <row r="26">
@@ -2308,19 +2308,19 @@
         <v>196893</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>175560</v>
+        <v>176212</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>217064</v>
+        <v>219070</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5355269706829132</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4775028829535042</v>
+        <v>0.4792757654863711</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.590389291350467</v>
+        <v>0.5958432270440276</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>96</v>
@@ -2329,19 +2329,19 @@
         <v>112951</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>97013</v>
+        <v>97496</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>130612</v>
+        <v>129151</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5012449321818063</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4305184770170757</v>
+        <v>0.4326608583847352</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5796211007658703</v>
+        <v>0.5731392847281168</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>271</v>
@@ -2350,19 +2350,19 @@
         <v>309844</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>283470</v>
+        <v>283055</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>336325</v>
+        <v>333226</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5224998511015956</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4780240988528279</v>
+        <v>0.4773241588003509</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5671559209232139</v>
+        <v>0.561929112961484</v>
       </c>
     </row>
     <row r="27">
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10473</v>
+        <v>9173</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01639827580869235</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0665608043167791</v>
+        <v>0.0582963828887912</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7196</v>
+        <v>6386</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03014319670210976</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1048708532275241</v>
+        <v>0.09307028604634489</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -2499,16 +2499,16 @@
         <v>1064</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11845</v>
+        <v>12001</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02057185712523896</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004709528852967554</v>
+        <v>0.004709053157578517</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05241973298380139</v>
+        <v>0.05311079535870351</v>
       </c>
     </row>
     <row r="29">
@@ -2525,19 +2525,19 @@
         <v>7441</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3215</v>
+        <v>3298</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13997</v>
+        <v>14809</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04728858278883</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0204311024254699</v>
+        <v>0.02096038279306257</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08895186791501014</v>
+        <v>0.09411463030972293</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -2546,19 +2546,19 @@
         <v>5104</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1950</v>
+        <v>1099</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11199</v>
+        <v>11714</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07438300226908244</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02842080766538457</v>
+        <v>0.01602146067635294</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1632220997218191</v>
+        <v>0.1707235395887527</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -2567,19 +2567,19 @@
         <v>12545</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6360</v>
+        <v>6381</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>22187</v>
+        <v>22447</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05551567727721034</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02814794931146346</v>
+        <v>0.02823768910175521</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09818778971090754</v>
+        <v>0.09933995658734965</v>
       </c>
     </row>
     <row r="30">
@@ -2596,19 +2596,19 @@
         <v>29673</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>20213</v>
+        <v>20020</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>41311</v>
+        <v>41199</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1885777013155326</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1284589140585109</v>
+        <v>0.1272311462027644</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2625425215371332</v>
+        <v>0.2618306841763807</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>9</v>
@@ -2617,19 +2617,19 @@
         <v>10657</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5531</v>
+        <v>4707</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19302</v>
+        <v>18514</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1553177287175064</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08061412146094933</v>
+        <v>0.06860128440064259</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2813126307732487</v>
+        <v>0.2698312988257159</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>36</v>
@@ -2638,19 +2638,19 @@
         <v>40330</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>29371</v>
+        <v>29637</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>54945</v>
+        <v>53199</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1784784652922498</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1299822671775819</v>
+        <v>0.1311559946521341</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2431567745225443</v>
+        <v>0.2354300299244834</v>
       </c>
     </row>
     <row r="31">
@@ -2667,19 +2667,19 @@
         <v>30167</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20462</v>
+        <v>20488</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>41394</v>
+        <v>40161</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1917155706862553</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1300386138625712</v>
+        <v>0.1302077778322052</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2630658571029815</v>
+        <v>0.2552289355791308</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>18</v>
@@ -2688,19 +2688,19 @@
         <v>19808</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12508</v>
+        <v>12804</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>28017</v>
+        <v>28781</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2886909516517746</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1822950022172907</v>
+        <v>0.1866057024099263</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4083391882035489</v>
+        <v>0.41947306020958</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>47</v>
@@ -2712,16 +2712,16 @@
         <v>38801</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>63926</v>
+        <v>63703</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.221161694188975</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1717135154684022</v>
+        <v>0.1717152597284455</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2829054502573173</v>
+        <v>0.281917523674989</v>
       </c>
     </row>
     <row r="32">
@@ -2738,19 +2738,19 @@
         <v>87490</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>74123</v>
+        <v>73782</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>100267</v>
+        <v>99980</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5560198694006897</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4710658613784348</v>
+        <v>0.4689030534507536</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6372163998841277</v>
+        <v>0.6353974933331152</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>29</v>
@@ -2759,19 +2759,19 @@
         <v>30976</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>22740</v>
+        <v>22707</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>39398</v>
+        <v>40599</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4514651206595268</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3314211975475281</v>
+        <v>0.3309457521921397</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5742082514678759</v>
+        <v>0.5917126348334809</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>111</v>
@@ -2780,19 +2780,19 @@
         <v>118467</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>102939</v>
+        <v>102786</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>134267</v>
+        <v>132774</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5242723061163259</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4555559138638332</v>
+        <v>0.454879421480969</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5941943523657297</v>
+        <v>0.5875903415440249</v>
       </c>
     </row>
     <row r="33">
@@ -2884,19 +2884,19 @@
         <v>39203</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>28850</v>
+        <v>28427</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>54407</v>
+        <v>53943</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02767165729702493</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02036346927999544</v>
+        <v>0.02006494212737489</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03840308855532975</v>
+        <v>0.03807542345946634</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>28</v>
@@ -2905,19 +2905,19 @@
         <v>28497</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>19151</v>
+        <v>19485</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>39871</v>
+        <v>40269</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03020349675017532</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0202970015322309</v>
+        <v>0.02065157956526531</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04225756524253174</v>
+        <v>0.04267995493216708</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>65</v>
@@ -2926,19 +2926,19 @@
         <v>67701</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>51869</v>
+        <v>52900</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>85335</v>
+        <v>85911</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02868376576212881</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02197621902133902</v>
+        <v>0.0224130580573728</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03615526080065661</v>
+        <v>0.03639905512667563</v>
       </c>
     </row>
     <row r="35">
@@ -2955,19 +2955,19 @@
         <v>59285</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>46103</v>
+        <v>44864</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>76193</v>
+        <v>78280</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04184588300401335</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03254190968874103</v>
+        <v>0.03166719563282338</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05378083131853543</v>
+        <v>0.05525389568840638</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>37</v>
@@ -2976,19 +2976,19 @@
         <v>42666</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>30282</v>
+        <v>30360</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>58380</v>
+        <v>57085</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04522058647839138</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03209482193666994</v>
+        <v>0.03217768810501714</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06187500236458481</v>
+        <v>0.06050262806215188</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>92</v>
@@ -2997,19 +2997,19 @@
         <v>101951</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>84766</v>
+        <v>82120</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>125726</v>
+        <v>123891</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04319492824042573</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03591412474641184</v>
+        <v>0.03479305692393864</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05326788134479345</v>
+        <v>0.05249052436762647</v>
       </c>
     </row>
     <row r="36">
@@ -3026,19 +3026,19 @@
         <v>255855</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>226415</v>
+        <v>226093</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>286206</v>
+        <v>287095</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1805949396996446</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1598142945134</v>
+        <v>0.1595874978997208</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2020175653714767</v>
+        <v>0.2026454154032067</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>186</v>
@@ -3047,19 +3047,19 @@
         <v>203313</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>179331</v>
+        <v>179763</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>229653</v>
+        <v>230663</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2154845715338957</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1900662286330884</v>
+        <v>0.1905242480890923</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2434015192815793</v>
+        <v>0.2444722040954709</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>429</v>
@@ -3068,19 +3068,19 @@
         <v>459168</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>418732</v>
+        <v>417502</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>500825</v>
+        <v>496345</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.19454214779764</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1774098852315882</v>
+        <v>0.1768889730857374</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2121916032969556</v>
+        <v>0.2102933660538026</v>
       </c>
     </row>
     <row r="37">
@@ -3097,19 +3097,19 @@
         <v>351462</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>319208</v>
+        <v>318722</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>388801</v>
+        <v>383239</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.248078931371991</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2253126051628957</v>
+        <v>0.2249689984779665</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2744343992573964</v>
+        <v>0.2705085926181813</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>214</v>
@@ -3118,19 +3118,19 @@
         <v>223944</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>199560</v>
+        <v>199506</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>252119</v>
+        <v>254353</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2373500025417078</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2115070967104602</v>
+        <v>0.2114495114789998</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2672122753055285</v>
+        <v>0.2695798261889052</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>547</v>
@@ -3139,19 +3139,19 @@
         <v>575406</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>534753</v>
+        <v>533225</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>620965</v>
+        <v>618464</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2437900181562992</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.226566367585119</v>
+        <v>0.2259189078674985</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2630926104695519</v>
+        <v>0.2620332799428965</v>
       </c>
     </row>
     <row r="38">
@@ -3168,19 +3168,19 @@
         <v>710930</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>672367</v>
+        <v>673960</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>751661</v>
+        <v>748666</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5018085886273261</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4745888966603273</v>
+        <v>0.4757132411060436</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5305583716135522</v>
+        <v>0.5284441048662489</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>406</v>
@@ -3189,19 +3189,19 @@
         <v>445096</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>414706</v>
+        <v>413463</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>478670</v>
+        <v>477251</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4717413426958298</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4395324930355071</v>
+        <v>0.4382149153476854</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5073253650584471</v>
+        <v>0.505821659741241</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1068</v>
@@ -3210,19 +3210,19 @@
         <v>1156025</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1102301</v>
+        <v>1105909</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1207494</v>
+        <v>1205124</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4897891400435063</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4670271461821746</v>
+        <v>0.4685555267434737</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.511595724813645</v>
+        <v>0.5105913484869687</v>
       </c>
     </row>
     <row r="39">
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5249</v>
+        <v>4449</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01375309083448509</v>
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06635046788156895</v>
+        <v>0.05623863516254194</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -3576,19 +3576,19 @@
         <v>7551</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3095</v>
+        <v>3121</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15164</v>
+        <v>14574</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08221013754345251</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03369275834962023</v>
+        <v>0.03397884396338575</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1650908818304155</v>
+        <v>0.1586680664552981</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -3597,19 +3597,19 @@
         <v>8639</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3913</v>
+        <v>4071</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15630</v>
+        <v>16131</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05053340219309262</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02288773951330271</v>
+        <v>0.02380921553431431</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0914210906689734</v>
+        <v>0.09435423730633297</v>
       </c>
     </row>
     <row r="5">
@@ -3626,19 +3626,19 @@
         <v>6231</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2983</v>
+        <v>2114</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12268</v>
+        <v>12412</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07875992769626355</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0377063385784593</v>
+        <v>0.02672267242862129</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1550745609948425</v>
+        <v>0.1568938735698254</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -3647,19 +3647,19 @@
         <v>2785</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7388</v>
+        <v>7517</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03032456035649649</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0</v>
+        <v>0.009648417534242783</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08043393358673603</v>
+        <v>0.08183544540030961</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -3668,19 +3668,19 @@
         <v>9016</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4178</v>
+        <v>4173</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16654</v>
+        <v>16752</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05273677920873463</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02443577567320456</v>
+        <v>0.024411127516213</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09741472894202069</v>
+        <v>0.09798479047633636</v>
       </c>
     </row>
     <row r="6">
@@ -3697,19 +3697,19 @@
         <v>23289</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15646</v>
+        <v>15420</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31741</v>
+        <v>31907</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2943949309450717</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1977741187970813</v>
+        <v>0.1949191068219196</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4012299087762197</v>
+        <v>0.4033308154037492</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -3718,19 +3718,19 @@
         <v>20939</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13795</v>
+        <v>14241</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29465</v>
+        <v>29475</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2279541775521016</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1501846622985715</v>
+        <v>0.1550332629297418</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3207761749875395</v>
+        <v>0.3208904206031504</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>42</v>
@@ -3739,19 +3739,19 @@
         <v>44228</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>34206</v>
+        <v>33450</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>57106</v>
+        <v>56228</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2586979250972604</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2000785757404644</v>
+        <v>0.195653958970896</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3340238102132822</v>
+        <v>0.3288852794980549</v>
       </c>
     </row>
     <row r="7">
@@ -3768,19 +3768,19 @@
         <v>23797</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16691</v>
+        <v>16192</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32428</v>
+        <v>32896</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3008142932228475</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2109908415752972</v>
+        <v>0.2046811393951248</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4099116022353166</v>
+        <v>0.4158263091630905</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -3789,19 +3789,19 @@
         <v>31281</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22844</v>
+        <v>22777</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40209</v>
+        <v>40864</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3405456254879438</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2486945578748237</v>
+        <v>0.2479722379133953</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.437744497089069</v>
+        <v>0.4448726102223156</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -3810,19 +3810,19 @@
         <v>55078</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43298</v>
+        <v>42861</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69007</v>
+        <v>67745</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3221609747064223</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2532599184362641</v>
+        <v>0.2507025809071873</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.403633826421899</v>
+        <v>0.3962521041072319</v>
       </c>
     </row>
     <row r="8">
@@ -3839,19 +3839,19 @@
         <v>24704</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16333</v>
+        <v>16622</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>32697</v>
+        <v>33537</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3122777573013322</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.20646627107735</v>
+        <v>0.2101108836882939</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4133149450932047</v>
+        <v>0.4239321241682698</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>30</v>
@@ -3860,19 +3860,19 @@
         <v>29299</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20944</v>
+        <v>21184</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>39175</v>
+        <v>38637</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3189654990600057</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2280069123507207</v>
+        <v>0.2306280415798483</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4264899756272638</v>
+        <v>0.4206334075668482</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>53</v>
@@ -3881,19 +3881,19 @@
         <v>54003</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>42605</v>
+        <v>41934</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>66951</v>
+        <v>65553</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3158709187944901</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2492034334089643</v>
+        <v>0.2452771138707972</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.391610947515244</v>
+        <v>0.3834338227995768</v>
       </c>
     </row>
     <row r="9">
@@ -3985,19 +3985,19 @@
         <v>17546</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10443</v>
+        <v>10771</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27832</v>
+        <v>28723</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05097954536481614</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03034109584349791</v>
+        <v>0.03129336061991222</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08086354185856472</v>
+        <v>0.08345253193136454</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -4006,19 +4006,19 @@
         <v>6694</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2805</v>
+        <v>2829</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12522</v>
+        <v>13554</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02445505353077198</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01024671484829055</v>
+        <v>0.01033729104544491</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04574855684130435</v>
+        <v>0.04952025452394325</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -4027,19 +4027,19 @@
         <v>24240</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16073</v>
+        <v>15736</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36032</v>
+        <v>35334</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03922980187977361</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02601286878293763</v>
+        <v>0.02546724221703922</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05831357723399917</v>
+        <v>0.0571843127506035</v>
       </c>
     </row>
     <row r="11">
@@ -4056,19 +4056,19 @@
         <v>22212</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14306</v>
+        <v>14052</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32839</v>
+        <v>33606</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06453639227825783</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04156378738343356</v>
+        <v>0.04082703579884506</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09541202680347534</v>
+        <v>0.09764021570848785</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -4077,19 +4077,19 @@
         <v>16063</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9438</v>
+        <v>10189</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25307</v>
+        <v>25384</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05868486199876866</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03448048559494595</v>
+        <v>0.03722587057579396</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09245856415871102</v>
+        <v>0.09274000909453917</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>37</v>
@@ -4098,19 +4098,19 @@
         <v>38276</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>28150</v>
+        <v>27641</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>51986</v>
+        <v>51116</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06194429814091751</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04555812823618857</v>
+        <v>0.04473413695848782</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08413337907250072</v>
+        <v>0.08272502474058573</v>
       </c>
     </row>
     <row r="12">
@@ -4127,19 +4127,19 @@
         <v>79598</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>63379</v>
+        <v>64498</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>96471</v>
+        <v>97096</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2312658139283891</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1841416039525888</v>
+        <v>0.1873942257018147</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2802887801014321</v>
+        <v>0.2821045322909024</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>70</v>
@@ -4148,19 +4148,19 @@
         <v>67808</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>55566</v>
+        <v>55268</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>82794</v>
+        <v>82955</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2477308553999945</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2030063502378762</v>
+        <v>0.2019190034605845</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3024822123359138</v>
+        <v>0.3030713891552222</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>145</v>
@@ -4169,19 +4169,19 @@
         <v>147406</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>124590</v>
+        <v>124714</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>168492</v>
+        <v>169284</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2385594508799421</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.201634366328494</v>
+        <v>0.2018342632629369</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2726835071072051</v>
+        <v>0.2739663972712408</v>
       </c>
     </row>
     <row r="13">
@@ -4198,19 +4198,19 @@
         <v>93967</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78208</v>
+        <v>78018</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>111555</v>
+        <v>109996</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2730135944750415</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2272273647580576</v>
+        <v>0.2266732532724441</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3241148230882387</v>
+        <v>0.3195852163951325</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>82</v>
@@ -4219,19 +4219,19 @@
         <v>78550</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64307</v>
+        <v>64615</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>93595</v>
+        <v>92230</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2869771243450546</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2349419933941315</v>
+        <v>0.2360666066595489</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3419421891726468</v>
+        <v>0.3369550483490695</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>172</v>
@@ -4240,19 +4240,19 @@
         <v>172518</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>151560</v>
+        <v>152149</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>195405</v>
+        <v>193990</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2791991189761293</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2452811970204335</v>
+        <v>0.2462355848369641</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3162397348044368</v>
+        <v>0.3139502005426673</v>
       </c>
     </row>
     <row r="14">
@@ -4269,19 +4269,19 @@
         <v>130861</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>112412</v>
+        <v>109708</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>149072</v>
+        <v>145749</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3802046539534954</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3266031620288292</v>
+        <v>0.3187478911508125</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4331146324291371</v>
+        <v>0.4234617516726595</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -4290,19 +4290,19 @@
         <v>104601</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>89783</v>
+        <v>88569</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>119566</v>
+        <v>120301</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3821521047254102</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3280146420068622</v>
+        <v>0.3235782656011087</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4368244585632295</v>
+        <v>0.4395088984296739</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>235</v>
@@ -4311,19 +4311,19 @@
         <v>235462</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>211358</v>
+        <v>213119</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>261880</v>
+        <v>262182</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3810673301232375</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3420567561114267</v>
+        <v>0.3449079416224728</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4238211393792248</v>
+        <v>0.4243092437369543</v>
       </c>
     </row>
     <row r="15">
@@ -4415,19 +4415,19 @@
         <v>11586</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5854</v>
+        <v>5378</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21400</v>
+        <v>22246</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0252096573361812</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01273741488111253</v>
+        <v>0.01170173363579102</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04656366548290698</v>
+        <v>0.0484040089280727</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -4436,19 +4436,19 @@
         <v>9241</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4368</v>
+        <v>4284</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16819</v>
+        <v>16202</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02911399114463908</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01376223150039051</v>
+        <v>0.0134975219187817</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05298691381913104</v>
+        <v>0.05104492858555636</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -4457,19 +4457,19 @@
         <v>20827</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12739</v>
+        <v>12273</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32735</v>
+        <v>31929</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02680462085833026</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01639560714546071</v>
+        <v>0.01579543181187675</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04212985607932436</v>
+        <v>0.04109281936302302</v>
       </c>
     </row>
     <row r="17">
@@ -4486,19 +4486,19 @@
         <v>21579</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13942</v>
+        <v>12923</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31873</v>
+        <v>31568</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04695357102055873</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03033593694450698</v>
+        <v>0.02811778831457582</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06935194797292236</v>
+        <v>0.0686877727532368</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -4507,19 +4507,19 @@
         <v>19239</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11937</v>
+        <v>12167</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29401</v>
+        <v>30568</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06061184972216993</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03760638029557606</v>
+        <v>0.03833180231454884</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09262685147985569</v>
+        <v>0.09630420360187276</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -4528,19 +4528,19 @@
         <v>40818</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29861</v>
+        <v>29939</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>55323</v>
+        <v>55858</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0525331288588829</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03843060835297157</v>
+        <v>0.03853100734213179</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07120129579764453</v>
+        <v>0.07188883892036023</v>
       </c>
     </row>
     <row r="18">
@@ -4557,19 +4557,19 @@
         <v>106210</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>88487</v>
+        <v>87857</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>125037</v>
+        <v>125159</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2310984536641489</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1925350948675987</v>
+        <v>0.1911656290842165</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2720633869561939</v>
+        <v>0.2723293063822845</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>72</v>
@@ -4578,19 +4578,19 @@
         <v>70015</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>57149</v>
+        <v>57005</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>86347</v>
+        <v>86188</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2205790803111819</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1800450878809343</v>
+        <v>0.1795932520301995</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2720314867380679</v>
+        <v>0.2715322166718367</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>169</v>
@@ -4599,19 +4599,19 @@
         <v>176225</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>151287</v>
+        <v>155338</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>202522</v>
+        <v>201595</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2268011733605275</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1947058008243471</v>
+        <v>0.1999196779855139</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2606455109587193</v>
+        <v>0.2594529267370504</v>
       </c>
     </row>
     <row r="19">
@@ -4628,19 +4628,19 @@
         <v>121705</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>103193</v>
+        <v>103937</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>140738</v>
+        <v>140448</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2648142403855598</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2245344063407063</v>
+        <v>0.2261535631459521</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3062274749719521</v>
+        <v>0.3055947485012716</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>79</v>
@@ -4649,19 +4649,19 @@
         <v>78148</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>63107</v>
+        <v>62911</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>93761</v>
+        <v>94395</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2462018275584172</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1988154205777578</v>
+        <v>0.1981982403739472</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2953908445557715</v>
+        <v>0.297387178179043</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>199</v>
@@ -4670,19 +4670,19 @@
         <v>199853</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>177415</v>
+        <v>174551</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>224987</v>
+        <v>222682</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2572108639902927</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2283336448854648</v>
+        <v>0.2246466089092975</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2895576533385794</v>
+        <v>0.2865920923944845</v>
       </c>
     </row>
     <row r="20">
@@ -4699,19 +4699,19 @@
         <v>198507</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>177680</v>
+        <v>178730</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>219410</v>
+        <v>218277</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4319240775935514</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3866080871481194</v>
+        <v>0.3888922550701348</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4774061430872219</v>
+        <v>0.4749411971069394</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>140</v>
@@ -4720,19 +4720,19 @@
         <v>140771</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>123286</v>
+        <v>123741</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>156551</v>
+        <v>159276</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4434932512635919</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3884086168823356</v>
+        <v>0.3898407808343397</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.493206916768822</v>
+        <v>0.5017925217235035</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>330</v>
@@ -4741,19 +4741,19 @@
         <v>339278</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>311760</v>
+        <v>313250</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>366836</v>
+        <v>369230</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4366502129319666</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4012347055783379</v>
+        <v>0.4031521698169959</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4721180762447386</v>
+        <v>0.4751990180649289</v>
       </c>
     </row>
     <row r="21">
@@ -4845,19 +4845,19 @@
         <v>13661</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7411</v>
+        <v>7057</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24489</v>
+        <v>23232</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03714954632985067</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02015268358324769</v>
+        <v>0.019190466441948</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06659587129217596</v>
+        <v>0.06317704185261418</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -4866,19 +4866,19 @@
         <v>14813</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8364</v>
+        <v>8516</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24023</v>
+        <v>24618</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06092893603073139</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0344024363164166</v>
+        <v>0.03502867158992241</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0988134111017572</v>
+        <v>0.1012613152704338</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -4887,19 +4887,19 @@
         <v>28474</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18641</v>
+        <v>17948</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40606</v>
+        <v>40681</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04661379190429444</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03051624072270462</v>
+        <v>0.02938222056225678</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06647465467833022</v>
+        <v>0.06659800722813848</v>
       </c>
     </row>
     <row r="23">
@@ -4916,19 +4916,19 @@
         <v>19508</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11637</v>
+        <v>10977</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30633</v>
+        <v>30503</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05305111266670893</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03164487776877511</v>
+        <v>0.02984960039896704</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08330475510088507</v>
+        <v>0.08294871378707452</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -4937,19 +4937,19 @@
         <v>15357</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8904</v>
+        <v>9148</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>24526</v>
+        <v>25770</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06316788936197716</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03662276954485268</v>
+        <v>0.03762790893486354</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1008817315598996</v>
+        <v>0.1059982955311639</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>31</v>
@@ -4958,19 +4958,19 @@
         <v>34866</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>23574</v>
+        <v>24140</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>48905</v>
+        <v>48333</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05707761041413775</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0385928293653001</v>
+        <v>0.03951916236908384</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08006131445506567</v>
+        <v>0.07912475012158857</v>
       </c>
     </row>
     <row r="24">
@@ -4987,19 +4987,19 @@
         <v>69040</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>55487</v>
+        <v>54576</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>85047</v>
+        <v>85723</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1877465354389436</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1508919029624632</v>
+        <v>0.1484146980001669</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2312769983445722</v>
+        <v>0.2331156661317553</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>51</v>
@@ -5008,19 +5008,19 @@
         <v>58109</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>44030</v>
+        <v>44266</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>73584</v>
+        <v>73115</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2390138273967361</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1811041125704244</v>
+        <v>0.1820748319740096</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3026697892009919</v>
+        <v>0.3007378155122222</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>113</v>
@@ -5029,19 +5029,19 @@
         <v>127148</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>106543</v>
+        <v>106790</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>148659</v>
+        <v>149608</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2081510221448107</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.174418291354999</v>
+        <v>0.1748224927867904</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2433665562006408</v>
+        <v>0.2449185582577665</v>
       </c>
     </row>
     <row r="25">
@@ -5058,19 +5058,19 @@
         <v>119496</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>101775</v>
+        <v>102179</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>138655</v>
+        <v>138276</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3249586751155227</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2767659264135956</v>
+        <v>0.2778646197969548</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.377057983036992</v>
+        <v>0.3760282820236013</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -5079,19 +5079,19 @@
         <v>60740</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>47945</v>
+        <v>46978</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>75528</v>
+        <v>74453</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2498378292760018</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1972084049330762</v>
+        <v>0.1932314333459358</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3106628006928381</v>
+        <v>0.3062432810714862</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>168</v>
@@ -5100,19 +5100,19 @@
         <v>180236</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>160158</v>
+        <v>159049</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>206584</v>
+        <v>204656</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2950604253400532</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2621900656132983</v>
+        <v>0.2603744419872697</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3381926032744978</v>
+        <v>0.3350372589738729</v>
       </c>
     </row>
     <row r="26">
@@ -5129,19 +5129,19 @@
         <v>146023</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>126103</v>
+        <v>127168</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>167540</v>
+        <v>166730</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3970941304489741</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3429257212472632</v>
+        <v>0.345821607766076</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4556087912953501</v>
+        <v>0.4534064556819002</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>87</v>
@@ -5150,19 +5150,19 @@
         <v>94099</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>77573</v>
+        <v>78613</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>109802</v>
+        <v>109531</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3870515179345536</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3190768466135794</v>
+        <v>0.3233547498933675</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4516417950784059</v>
+        <v>0.4505247954663744</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>217</v>
@@ -5171,19 +5171,19 @@
         <v>240122</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>214955</v>
+        <v>215878</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>265194</v>
+        <v>264848</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3930971501967039</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3518964801501098</v>
+        <v>0.3534087127729275</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4341422973497076</v>
+        <v>0.4335754908177585</v>
       </c>
     </row>
     <row r="27">
@@ -5275,19 +5275,19 @@
         <v>5474</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2136</v>
+        <v>2150</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12241</v>
+        <v>12075</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03302935329915781</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01288773647008388</v>
+        <v>0.01297160567531698</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07386007051102794</v>
+        <v>0.07285827864355182</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -5296,19 +5296,19 @@
         <v>8539</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3560</v>
+        <v>3974</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15921</v>
+        <v>17035</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08064401906636824</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03362688121492008</v>
+        <v>0.03753503179603408</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1503722231300092</v>
+        <v>0.1608910972471981</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>12</v>
@@ -5317,19 +5317,19 @@
         <v>14012</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>7737</v>
+        <v>7504</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>23610</v>
+        <v>23776</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05159079723851463</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02848507870397715</v>
+        <v>0.02762925312433408</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08692677351159979</v>
+        <v>0.08753991089534294</v>
       </c>
     </row>
     <row r="29">
@@ -5346,19 +5346,19 @@
         <v>13164</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7056</v>
+        <v>6938</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>22166</v>
+        <v>22354</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07943073113501406</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04257464220933514</v>
+        <v>0.04186328758980744</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.133753422495113</v>
+        <v>0.1348855251230294</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>11</v>
@@ -5367,19 +5367,19 @@
         <v>12653</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6867</v>
+        <v>6978</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20546</v>
+        <v>22163</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1195032123136021</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06485545615095695</v>
+        <v>0.06590715290339741</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1940520872143491</v>
+        <v>0.2093200917717319</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>22</v>
@@ -5388,19 +5388,19 @@
         <v>25817</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>16338</v>
+        <v>16361</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>36707</v>
+        <v>37058</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09505203396099146</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06015522886280699</v>
+        <v>0.06023725549246083</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1351500415517692</v>
+        <v>0.1364405014711056</v>
       </c>
     </row>
     <row r="30">
@@ -5417,19 +5417,19 @@
         <v>38235</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>27076</v>
+        <v>27910</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>50935</v>
+        <v>51236</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2307130393534365</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1633781622322727</v>
+        <v>0.1684107113647636</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.307347445000512</v>
+        <v>0.3091629952979819</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>24</v>
@@ -5438,19 +5438,19 @@
         <v>27762</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>18002</v>
+        <v>19400</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>38753</v>
+        <v>38464</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.262209522594384</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1700250800303202</v>
+        <v>0.1832307383568489</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3660096594090955</v>
+        <v>0.3632861416154877</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>56</v>
@@ -5459,19 +5459,19 @@
         <v>65998</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>50695</v>
+        <v>51034</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>81733</v>
+        <v>82014</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2429911935427774</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1866498178420651</v>
+        <v>0.1878988934986505</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.30092765033115</v>
+        <v>0.3019588251598996</v>
       </c>
     </row>
     <row r="31">
@@ -5488,19 +5488,19 @@
         <v>33466</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>23272</v>
+        <v>23434</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>45374</v>
+        <v>44314</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2019349060162095</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1404218442772579</v>
+        <v>0.14140060306595</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2737896487323222</v>
+        <v>0.2673945046621702</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>20</v>
@@ -5509,19 +5509,19 @@
         <v>22123</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>14292</v>
+        <v>14174</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>31974</v>
+        <v>31005</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2089459597439583</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1349857174585369</v>
+        <v>0.1338673939351082</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3019861907684853</v>
+        <v>0.2928355282745594</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>51</v>
@@ -5530,19 +5530,19 @@
         <v>55589</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>42361</v>
+        <v>42299</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>69878</v>
+        <v>70337</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2046679984075258</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1559646181475915</v>
+        <v>0.1557358264810055</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2572781174557272</v>
+        <v>0.2589673739509741</v>
       </c>
     </row>
     <row r="32">
@@ -5559,19 +5559,19 @@
         <v>75387</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>62635</v>
+        <v>60681</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>89197</v>
+        <v>88782</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.454891970196182</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3779453959193638</v>
+        <v>0.3661535710877412</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5382184345853732</v>
+        <v>0.5357141154799596</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>28</v>
@@ -5580,19 +5580,19 @@
         <v>34802</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>24496</v>
+        <v>25030</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>45647</v>
+        <v>46519</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3286972862816873</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2313617191507722</v>
+        <v>0.2364021689284123</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4311226343941522</v>
+        <v>0.4393553248222392</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>95</v>
@@ -5601,19 +5601,19 @@
         <v>110190</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>91702</v>
+        <v>92788</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>129132</v>
+        <v>127527</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4056979768501908</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3376306851527928</v>
+        <v>0.3416267938750746</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4754399848085372</v>
+        <v>0.4695310502284878</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>49355</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>34450</v>
+        <v>35110</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>65320</v>
+        <v>64964</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03484709614230527</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02432315931603934</v>
+        <v>0.02478935708611852</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04611930907962818</v>
+        <v>0.04586761422056599</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>44</v>
@@ -5726,19 +5726,19 @@
         <v>46838</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>33632</v>
+        <v>33499</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>60145</v>
+        <v>61553</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04538621256217294</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03258958843178725</v>
+        <v>0.03246082091030787</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05828077450834668</v>
+        <v>0.05964547595355688</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>86</v>
@@ -5747,19 +5747,19 @@
         <v>96193</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>76657</v>
+        <v>78342</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>119090</v>
+        <v>117481</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03928940013971158</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03130999850821053</v>
+        <v>0.03199813146186194</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04864164633517756</v>
+        <v>0.04798457075109055</v>
       </c>
     </row>
     <row r="35">
@@ -5776,19 +5776,19 @@
         <v>82695</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>65917</v>
+        <v>65519</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>103220</v>
+        <v>100919</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05838622062796289</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04654024097189426</v>
+        <v>0.04625970911007535</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07287807588214039</v>
+        <v>0.0712533949471261</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>64</v>
@@ -5797,19 +5797,19 @@
         <v>66098</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>52096</v>
+        <v>51244</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>84397</v>
+        <v>82684</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06404919617681691</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05048132526387975</v>
+        <v>0.04965605034307467</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08178173934134048</v>
+        <v>0.08012187809973255</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>139</v>
@@ -5818,19 +5818,19 @@
         <v>148792</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>127524</v>
+        <v>125586</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>172857</v>
+        <v>176093</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06077320051466997</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05208637690769907</v>
+        <v>0.051294828423279</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07060244630750601</v>
+        <v>0.07192406466489645</v>
       </c>
     </row>
     <row r="36">
@@ -5847,19 +5847,19 @@
         <v>316373</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>283951</v>
+        <v>285417</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>347489</v>
+        <v>348953</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2233738417667883</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2004827171532604</v>
+        <v>0.2015173831198937</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2453432923153634</v>
+        <v>0.2463769330764009</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>238</v>
@@ -5868,19 +5868,19 @@
         <v>244633</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>216677</v>
+        <v>216618</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>271843</v>
+        <v>272337</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.237051194728068</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2099617519826733</v>
+        <v>0.2099048894501001</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2634181683474447</v>
+        <v>0.2638968254105629</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>525</v>
@@ -5889,19 +5889,19 @@
         <v>561005</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>518297</v>
+        <v>521207</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>605000</v>
+        <v>607788</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2291389322462227</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2116949634022964</v>
+        <v>0.2128836152018871</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2471082838287295</v>
+        <v>0.2482472070264778</v>
       </c>
     </row>
     <row r="37">
@@ -5918,19 +5918,19 @@
         <v>392432</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>358255</v>
+        <v>357410</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>427469</v>
+        <v>425502</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2770755041493835</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2529446425043662</v>
+        <v>0.2523484251507141</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3018131479657425</v>
+        <v>0.3004243767548687</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>270</v>
@@ -5939,19 +5939,19 @@
         <v>270842</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>243192</v>
+        <v>243588</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>300671</v>
+        <v>298998</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2624484117512182</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2356556187297758</v>
+        <v>0.2360393089462461</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2913529468430154</v>
+        <v>0.2897315736914663</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>645</v>
@@ -5960,19 +5960,19 @@
         <v>663274</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>622526</v>
+        <v>621662</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>710515</v>
+        <v>707897</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.27091009251124</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2542666583644057</v>
+        <v>0.2539137530745083</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2902053885768552</v>
+        <v>0.2891360019911718</v>
       </c>
     </row>
     <row r="38">
@@ -5989,19 +5989,19 @@
         <v>575482</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>539984</v>
+        <v>537442</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>615243</v>
+        <v>614065</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.40631733731356</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3812540564445125</v>
+        <v>0.3794592901467831</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4343905442659603</v>
+        <v>0.4335585657696478</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>392</v>
@@ -6010,19 +6010,19 @@
         <v>403572</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>374554</v>
+        <v>374865</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>436516</v>
+        <v>436857</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3910649847817239</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3629459364417841</v>
+        <v>0.3632479141811134</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4229876113176744</v>
+        <v>0.4233181809406992</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>930</v>
@@ -6031,19 +6031,19 @@
         <v>979054</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>931823</v>
+        <v>927810</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1031158</v>
+        <v>1029855</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3998883745881557</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3805971297701626</v>
+        <v>0.3789580748812174</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4211700538993502</v>
+        <v>0.4206379031531454</v>
       </c>
     </row>
     <row r="39">
